--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817611</v>
+        <v>111817654</v>
       </c>
       <c r="B5" t="n">
-        <v>89416</v>
+        <v>89363</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,30 +1056,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1205</v>
+        <v>5445</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578480.2128223784</v>
+        <v>578449.7681887138</v>
       </c>
       <c r="R5" t="n">
-        <v>6398699.632505047</v>
+        <v>6398641.347911141</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Relativt tunn asp.</t>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817582</v>
+        <v>111817611</v>
       </c>
       <c r="B6" t="n">
-        <v>88283</v>
+        <v>89416</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,30 +1185,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>655</v>
+        <v>1205</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578498.8708077573</v>
+        <v>578480.2128223784</v>
       </c>
       <c r="R6" t="n">
-        <v>6398730.978152275</v>
+        <v>6398699.632505047</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1270,6 +1270,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1297,10 +1302,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111817654</v>
+        <v>111817582</v>
       </c>
       <c r="B7" t="n">
-        <v>89363</v>
+        <v>88283</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1313,26 +1318,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5445</v>
+        <v>655</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1348,10 +1353,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578449.7681887138</v>
+        <v>578498.8708077573</v>
       </c>
       <c r="R7" t="n">
-        <v>6398641.347911141</v>
+        <v>6398730.978152275</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1394,11 +1399,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817654</v>
+        <v>111817582</v>
       </c>
       <c r="B5" t="n">
-        <v>89363</v>
+        <v>88283</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,26 +1060,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5445</v>
+        <v>655</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578449.7681887138</v>
+        <v>578498.8708077573</v>
       </c>
       <c r="R5" t="n">
-        <v>6398641.347911141</v>
+        <v>6398730.978152275</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,11 +1141,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817611</v>
+        <v>111817654</v>
       </c>
       <c r="B6" t="n">
-        <v>89416</v>
+        <v>89363</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,30 +1180,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1205</v>
+        <v>5445</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1224,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578480.2128223784</v>
+        <v>578449.7681887138</v>
       </c>
       <c r="R6" t="n">
-        <v>6398699.632505047</v>
+        <v>6398641.347911141</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1274,7 +1269,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Relativt tunn asp.</t>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1302,10 +1297,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111817582</v>
+        <v>111817611</v>
       </c>
       <c r="B7" t="n">
-        <v>88283</v>
+        <v>89416</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,30 +1309,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>655</v>
+        <v>1205</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1353,10 +1348,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578498.8708077573</v>
+        <v>578480.2128223784</v>
       </c>
       <c r="R7" t="n">
-        <v>6398730.978152275</v>
+        <v>6398699.632505047</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1399,6 +1394,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817582</v>
+        <v>111817654</v>
       </c>
       <c r="B5" t="n">
-        <v>88283</v>
+        <v>89363</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,26 +1060,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>655</v>
+        <v>5445</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578498.8708077573</v>
+        <v>578449.7681887138</v>
       </c>
       <c r="R5" t="n">
-        <v>6398730.978152275</v>
+        <v>6398641.347911141</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,6 +1141,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817654</v>
+        <v>111817611</v>
       </c>
       <c r="B6" t="n">
-        <v>89363</v>
+        <v>89416</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,30 +1185,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5445</v>
+        <v>1205</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578449.7681887138</v>
+        <v>578480.2128223784</v>
       </c>
       <c r="R6" t="n">
-        <v>6398641.347911141</v>
+        <v>6398699.632505047</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,7 +1274,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På relativt tunn ek.</t>
+          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1297,10 +1302,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111817611</v>
+        <v>111817582</v>
       </c>
       <c r="B7" t="n">
-        <v>89416</v>
+        <v>88283</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,30 +1314,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1205</v>
+        <v>655</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1348,10 +1353,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578480.2128223784</v>
+        <v>578498.8708077573</v>
       </c>
       <c r="R7" t="n">
-        <v>6398699.632505047</v>
+        <v>6398730.978152275</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1394,11 +1399,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817582</v>
+        <v>111817611</v>
       </c>
       <c r="B5" t="n">
-        <v>88283</v>
+        <v>89416</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,30 +1056,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>655</v>
+        <v>1205</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578498.8708077573</v>
+        <v>578480.2128223784</v>
       </c>
       <c r="R5" t="n">
-        <v>6398730.978152275</v>
+        <v>6398699.632505047</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,6 +1141,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817654</v>
+        <v>111817582</v>
       </c>
       <c r="B6" t="n">
-        <v>89363</v>
+        <v>88283</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,26 +1189,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5445</v>
+        <v>655</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578449.7681887138</v>
+        <v>578498.8708077573</v>
       </c>
       <c r="R6" t="n">
-        <v>6398641.347911141</v>
+        <v>6398730.978152275</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,11 +1270,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1297,10 +1297,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111817611</v>
+        <v>111817654</v>
       </c>
       <c r="B7" t="n">
-        <v>89416</v>
+        <v>89363</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,30 +1309,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1205</v>
+        <v>5445</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578480.2128223784</v>
+        <v>578449.7681887138</v>
       </c>
       <c r="R7" t="n">
-        <v>6398699.632505047</v>
+        <v>6398641.347911141</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Relativt tunn asp.</t>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817611</v>
+        <v>111817582</v>
       </c>
       <c r="B5" t="n">
-        <v>89416</v>
+        <v>88283</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,30 +1056,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1205</v>
+        <v>655</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578480.2128223784</v>
+        <v>578498.8708077573</v>
       </c>
       <c r="R5" t="n">
-        <v>6398699.632505047</v>
+        <v>6398730.978152275</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,11 +1141,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817582</v>
+        <v>111817654</v>
       </c>
       <c r="B6" t="n">
-        <v>88283</v>
+        <v>89363</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1189,26 +1184,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>655</v>
+        <v>5445</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1224,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578498.8708077573</v>
+        <v>578449.7681887138</v>
       </c>
       <c r="R6" t="n">
-        <v>6398730.978152275</v>
+        <v>6398641.347911141</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1270,6 +1265,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1297,10 +1297,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111817654</v>
+        <v>111817611</v>
       </c>
       <c r="B7" t="n">
-        <v>89363</v>
+        <v>89416</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,30 +1309,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5445</v>
+        <v>1205</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578449.7681887138</v>
+        <v>578480.2128223784</v>
       </c>
       <c r="R7" t="n">
-        <v>6398641.347911141</v>
+        <v>6398699.632505047</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>På relativt tunn ek.</t>
+          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817582</v>
+        <v>111817654</v>
       </c>
       <c r="B5" t="n">
-        <v>88283</v>
+        <v>89363</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,26 +1060,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>655</v>
+        <v>5445</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578498.8708077573</v>
+        <v>578449.7681887138</v>
       </c>
       <c r="R5" t="n">
-        <v>6398730.978152275</v>
+        <v>6398641.347911141</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,6 +1141,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817654</v>
+        <v>111817582</v>
       </c>
       <c r="B6" t="n">
-        <v>89363</v>
+        <v>88283</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,26 +1189,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5445</v>
+        <v>655</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1219,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578449.7681887138</v>
+        <v>578498.8708077573</v>
       </c>
       <c r="R6" t="n">
-        <v>6398641.347911141</v>
+        <v>6398730.978152275</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,11 +1270,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817654</v>
+        <v>111817611</v>
       </c>
       <c r="B5" t="n">
-        <v>89363</v>
+        <v>89416</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,30 +1056,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5445</v>
+        <v>1205</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578449.7681887138</v>
+        <v>578480</v>
       </c>
       <c r="R5" t="n">
-        <v>6398641.347911141</v>
+        <v>6398700</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,24 +1128,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På relativt tunn ek.</t>
+          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817582</v>
+        <v>111817654</v>
       </c>
       <c r="B6" t="n">
-        <v>88283</v>
+        <v>89363</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1189,26 +1179,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>655</v>
+        <v>5445</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1224,10 +1214,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578498.8708077573</v>
+        <v>578450</v>
       </c>
       <c r="R6" t="n">
-        <v>6398730.978152275</v>
+        <v>6398641</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1257,19 +1247,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1297,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111817611</v>
+        <v>111817582</v>
       </c>
       <c r="B7" t="n">
-        <v>89416</v>
+        <v>88283</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,30 +1294,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1205</v>
+        <v>655</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1348,10 +1333,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578480.2128223784</v>
+        <v>578499</v>
       </c>
       <c r="R7" t="n">
-        <v>6398699.632505047</v>
+        <v>6398731</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1381,24 +1366,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 781-2023.xlsx
+++ b/artfynd/A 781-2023.xlsx
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111817611</v>
+        <v>111817582</v>
       </c>
       <c r="B5" t="n">
-        <v>89416</v>
+        <v>88283</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,30 +1056,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1205</v>
+        <v>655</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fistulina hepatica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schaeff.) With., nom sanct.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>578480</v>
+        <v>578499</v>
       </c>
       <c r="R5" t="n">
-        <v>6398700</v>
+        <v>6398731</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1131,11 +1131,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1163,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111817654</v>
+        <v>111817611</v>
       </c>
       <c r="B6" t="n">
-        <v>89363</v>
+        <v>89416</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,30 +1170,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5445</v>
+        <v>1205</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1214,10 +1209,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>578450</v>
+        <v>578480</v>
       </c>
       <c r="R6" t="n">
-        <v>6398641</v>
+        <v>6398700</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1254,7 +1249,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På relativt tunn ek.</t>
+          <t>Relativt tunn asp.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1282,10 +1277,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111817582</v>
+        <v>111817654</v>
       </c>
       <c r="B7" t="n">
-        <v>88283</v>
+        <v>89363</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1298,26 +1293,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>655</v>
+        <v>5445</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fistulina hepatica</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff.) With., nom sanct.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1333,10 +1328,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>578499</v>
+        <v>578450</v>
       </c>
       <c r="R7" t="n">
-        <v>6398731</v>
+        <v>6398641</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1369,6 +1364,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På relativt tunn ek.</t>
         </is>
       </c>
       <c r="AD7" t="b">
